--- a/downloaded_files/MDPS423_Lecture-35688.xlsx
+++ b/downloaded_files/MDPS423_Lecture-35688.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Adham Medhat Abdelmoaz Heba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جيسى ارميا وديع جندي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jessy Aemia Wadie</x:t>
   </x:si>
   <x:si>
     <x:t>1230028</x:t>
@@ -533,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1180,7 +1171,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6745177083</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45906.6653211806</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6653211806</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1267,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45906.7101332986</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1299,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.7101332986</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1331,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1363,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1395,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45906.6653193634</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653193634</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45912.0270594097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.0270594097</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45912.0279985301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0279985301</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45912.0279069792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1651,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.0279069792</x:v>
+        <x:v>45906.666103588</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.666103588</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45906.6661905093</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6661905093</x:v>
+        <x:v>45912.0267992245</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0267992245</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45912.0276349884</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.0276349884</x:v>
+        <x:v>45912.0260215625</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.0260215625</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45912.0259003125</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0259003125</x:v>
+        <x:v>45912.0271648148</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2227,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.0271648148</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2253,38 +2244,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45906.6649665856</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS423_Lecture-35688.xlsx
+++ b/downloaded_files/MDPS423_Lecture-35688.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Seif Alaa Eldin Samir Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاصم على محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assem Ali Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1220178</x:t>
@@ -524,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1267,7 +1258,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.7101332986</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1299,7 +1290,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1331,7 +1322,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1363,7 +1354,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45906.6653193634</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1395,7 +1386,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6653193634</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1427,7 +1418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45912.0270594097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1459,7 +1450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.0270594097</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1491,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45912.0279985301</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.0279985301</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45912.0279069792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.0279069792</x:v>
+        <x:v>45906.666103588</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1651,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.666103588</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1683,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45906.6661905093</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6661905093</x:v>
+        <x:v>45912.0267992245</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0267992245</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45912.0276349884</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.0276349884</x:v>
+        <x:v>45912.0260215625</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.0260215625</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45912.0259003125</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0259003125</x:v>
+        <x:v>45912.0271648148</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2186,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0271648148</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2212,38 +2203,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45906.6649665856</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS423_Lecture-35688.xlsx
+++ b/downloaded_files/MDPS423_Lecture-35688.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Adham Medhat Abdelmoaz Heba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1220008</x:t>
@@ -515,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1162,7 +1153,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45906.6653211806</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1194,7 +1185,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6653211806</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1226,7 +1217,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45906.6660037384</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1258,7 +1249,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6660037384</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1290,7 +1281,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1322,7 +1313,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45906.6653193634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1354,7 +1345,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6653193634</x:v>
+        <x:v>45906.6655985764</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1386,7 +1377,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6655985764</x:v>
+        <x:v>45912.0270594097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1418,7 +1409,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.0270594097</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1450,7 +1441,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45912.0279985301</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1482,7 +1473,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.0279985301</x:v>
+        <x:v>45906.6647847569</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647847569</x:v>
+        <x:v>45906.6648101852</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1546,7 +1537,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6648101852</x:v>
+        <x:v>45912.0279069792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1578,7 +1569,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0279069792</x:v>
+        <x:v>45906.666103588</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1610,7 +1601,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.666103588</x:v>
+        <x:v>45906.6779978819</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1642,7 +1633,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6779978819</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1674,7 +1665,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45906.6648998843</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1706,7 +1697,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648998843</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1738,7 +1729,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1770,7 +1761,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1793,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1825,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1857,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45906.6661905093</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6661905093</x:v>
+        <x:v>45912.0267992245</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0267992245</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45912.0276349884</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0276349884</x:v>
+        <x:v>45912.0260215625</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.0260215625</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45912.0259003125</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.0259003125</x:v>
+        <x:v>45912.0271648148</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2145,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0271648148</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2171,38 +2162,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45906.6649665856</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS423_Lecture-35688.xlsx
+++ b/downloaded_files/MDPS423_Lecture-35688.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -391,6 +391,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Salem Eid Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -816,7 +825,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="36.220625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45926.6592628819</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS423_Lecture-35688.xlsx
+++ b/downloaded_files/MDPS423_Lecture-35688.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Waleed Mahmoud El Shayep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان أحمد حسن سعيد معوض أبو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Ahmed Hassan Said Moawad Abuelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220200</x:t>
@@ -515,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1866,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45931.3075921296</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6661905093</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.0267992245</x:v>
+        <x:v>45906.6661905093</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45912.0267992245</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0276349884</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0260215625</x:v>
+        <x:v>45912.0276349884</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45912.0260215625</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.0259003125</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.0271648148</x:v>
+        <x:v>45912.0259003125</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45912.0271648148</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2186,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45926.6592628819</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2203,6 +2212,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45926.6592628819</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS423_Lecture-35688.xlsx
+++ b/downloaded_files/MDPS423_Lecture-35688.xlsx
@@ -267,15 +267,6 @@
     <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
   </x:si>
   <x:si>
-    <x:t>1230112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمود علي محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mahmoud Ali Mohamed Salama</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220023</x:t>
   </x:si>
   <x:si>
@@ -391,6 +382,15 @@
   </x:si>
   <x:si>
     <x:t>YOSSRY IBRAHIM ALI MOHAMMED SEHAIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حامد محمود يوسف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamed Mahmoud Youssef</x:t>
   </x:si>
   <x:si>
     <x:t>1220025</x:t>
@@ -1747,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45906.6645811343</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6645811343</x:v>
+        <x:v>45906.6648501968</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6648501968</x:v>
+        <x:v>45931.3075921296</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45931.3075921296</x:v>
+        <x:v>45906.6647894676</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6647894676</x:v>
+        <x:v>45906.6661905093</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6661905093</x:v>
+        <x:v>45912.0267992245</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0267992245</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6646466435</x:v>
+        <x:v>45912.0276349884</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0276349884</x:v>
+        <x:v>45912.0260215625</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.0260215625</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45912.0259003125</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.0259003125</x:v>
+        <x:v>45912.0271648148</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0271648148</x:v>
+        <x:v>45934.6426726852</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>

--- a/downloaded_files/MDPS423_Lecture-35688.xlsx
+++ b/downloaded_files/MDPS423_Lecture-35688.xlsx
@@ -102,7 +102,7 @@
     <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
   </x:si>
   <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+    <x:t>Adham Medhat Abdelmoaz Elazab Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1220008</x:t>
